--- a/Net Rev Model.xlsx
+++ b/Net Rev Model.xlsx
@@ -17,6 +17,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">INPUT NEW WAGE HERE</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,8 +648,8 @@
   </sheetPr>
   <dimension ref="A2:AMJ68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I64" activeCellId="0" sqref="I64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -681,27 +703,27 @@
         <v>30</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>19.27</v>
+        <v>19</v>
       </c>
       <c r="F3" s="7" t="n">
         <f aca="false">SUM(B43:D43)</f>
-        <v>55009.7261625</v>
+        <v>54885</v>
       </c>
       <c r="G3" s="7" t="n">
         <f aca="false">SUM(E43:G43)</f>
-        <v>57456.3002710734</v>
+        <v>57326.026875</v>
       </c>
       <c r="H3" s="7" t="n">
         <f aca="false">SUM(H43:J43)</f>
-        <v>59553.9317474116</v>
+        <v>59418.9022919531</v>
       </c>
       <c r="I3" s="7" t="n">
         <f aca="false">SUM(K43:M43)</f>
-        <v>61352.388534437</v>
+        <v>61213.2813525633</v>
       </c>
       <c r="J3" s="8" t="n">
         <f aca="false">SUM(B43:M43)</f>
-        <v>233372.346715422</v>
+        <v>232843.210519516</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -712,46 +734,10 @@
         <f aca="false">B3*500/3</f>
         <v>5000</v>
       </c>
-      <c r="E4" s="6" t="n">
-        <v>22</v>
-      </c>
-      <c r="F4" s="7" t="n">
-        <v>42535.875</v>
-      </c>
-      <c r="G4" s="7" t="n">
-        <v>44427.670828125</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <v>46049.6492762637</v>
-      </c>
-      <c r="I4" s="7" t="n">
-        <v>47440.2930482366</v>
-      </c>
-      <c r="J4" s="8" t="n">
-        <v>180453.488152625</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
-      <c r="E5" s="6" t="n">
-        <v>13.5454545454545</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -760,23 +746,23 @@
       <c r="B6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="n">
-        <v>22.64</v>
+      <c r="E6" s="6" t="n">
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>35989.8387333333</v>
+        <v>54885</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>37595.4275539917</v>
+        <v>57326.026875</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>38967.9724591036</v>
+        <v>59418.9022919531</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>40144.7581471239</v>
+        <v>61213.2813525633</v>
       </c>
       <c r="J6" s="8" t="n">
-        <v>152697.996893553</v>
+        <v>232843.210519516</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,6 +772,24 @@
       <c r="B7" s="10" t="n">
         <v>0.05</v>
       </c>
+      <c r="E7" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>42535.875</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>44427.670828125</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>46049.6492762637</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>47440.2930482366</v>
+      </c>
+      <c r="J7" s="8" t="n">
+        <v>180453.488152625</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -794,6 +798,24 @@
       <c r="B8" s="10" t="n">
         <v>0.33</v>
       </c>
+      <c r="E8" s="6" t="n">
+        <v>13.5454545454545</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -802,6 +824,24 @@
       <c r="B9" s="10" t="n">
         <v>0.1</v>
       </c>
+      <c r="E9" s="3" t="n">
+        <v>22.64</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>35989.8387333333</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>37595.4275539917</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>38967.9724591036</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>40144.7581471239</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <v>152697.996893553</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -913,7 +953,7 @@
       </c>
       <c r="B17" s="15" t="n">
         <f aca="false">E3</f>
-        <v>19.27</v>
+        <v>19</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -933,7 +973,7 @@
       </c>
       <c r="B18" s="18" t="n">
         <f aca="false">B2-B17</f>
-        <v>5.73</v>
+        <v>6</v>
       </c>
       <c r="M18" s="5"/>
     </row>
@@ -943,7 +983,7 @@
       </c>
       <c r="B19" s="20" t="n">
         <f aca="false">IF($B$17*$B$14-$B$15*$B$14&gt;0, $B$17*$B$14-$B$15*$B$14, 0)</f>
-        <v>104.95</v>
+        <v>100</v>
       </c>
       <c r="M19" s="5"/>
     </row>
@@ -1194,47 +1234,47 @@
       </c>
       <c r="C27" s="21" t="n">
         <f aca="false">B40</f>
-        <v>4074.155</v>
+        <v>4040</v>
       </c>
       <c r="D27" s="21" t="n">
         <f aca="false">C40</f>
-        <v>4135.9081</v>
+        <v>4078.3</v>
       </c>
       <c r="E27" s="21" t="n">
         <f aca="false">D40</f>
-        <v>4188.7484645</v>
+        <v>4114.886</v>
       </c>
       <c r="F27" s="21" t="n">
         <f aca="false">E40</f>
-        <v>4235.04400684</v>
+        <v>4149.77737</v>
       </c>
       <c r="G27" s="21" t="n">
         <f aca="false">F40</f>
-        <v>4276.40989342655</v>
+        <v>4183.0144004</v>
       </c>
       <c r="H27" s="21" t="n">
         <f aca="false">G40</f>
-        <v>4313.95551699735</v>
+        <v>4214.650032643</v>
       </c>
       <c r="I27" s="21" t="n">
         <f aca="false">H40</f>
-        <v>4348.45004036971</v>
+        <v>4244.74438702706</v>
       </c>
       <c r="J27" s="21" t="n">
         <f aca="false">I40</f>
-        <v>4380.43337883012</v>
+        <v>4273.36116120657</v>
       </c>
       <c r="K27" s="21" t="n">
         <f aca="false">J40</f>
-        <v>4410.29062300947</v>
+        <v>4300.56527881191</v>
       </c>
       <c r="L27" s="21" t="n">
         <f aca="false">K40</f>
-        <v>4438.30196364997</v>
+        <v>4326.42137256732</v>
       </c>
       <c r="M27" s="28" t="n">
         <f aca="false">L40</f>
-        <v>4464.67619956742</v>
+        <v>4350.99282359528</v>
       </c>
     </row>
     <row r="28" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,47 +1340,47 @@
       </c>
       <c r="C29" s="29" t="n">
         <f aca="false">C28+C27</f>
-        <v>5074.155</v>
+        <v>5040</v>
       </c>
       <c r="D29" s="29" t="n">
         <f aca="false">D28+D27</f>
-        <v>5135.9081</v>
+        <v>5078.3</v>
       </c>
       <c r="E29" s="29" t="n">
         <f aca="false">E28+E27</f>
-        <v>5188.7484645</v>
+        <v>5114.886</v>
       </c>
       <c r="F29" s="29" t="n">
         <f aca="false">F28+F27</f>
-        <v>5235.04400684</v>
+        <v>5149.77737</v>
       </c>
       <c r="G29" s="29" t="n">
         <f aca="false">G28+G27</f>
-        <v>5276.40989342655</v>
+        <v>5183.0144004</v>
       </c>
       <c r="H29" s="29" t="n">
         <f aca="false">H28+H27</f>
-        <v>5313.95551699735</v>
+        <v>5214.650032643</v>
       </c>
       <c r="I29" s="29" t="n">
         <f aca="false">I28+I27</f>
-        <v>5348.45004036971</v>
+        <v>5244.74438702706</v>
       </c>
       <c r="J29" s="29" t="n">
         <f aca="false">J28+J27</f>
-        <v>5380.43337883012</v>
+        <v>5273.36116120657</v>
       </c>
       <c r="K29" s="29" t="n">
         <f aca="false">K28+K27</f>
-        <v>5410.29062300947</v>
+        <v>5300.56527881191</v>
       </c>
       <c r="L29" s="29" t="n">
         <f aca="false">L28+L27</f>
-        <v>5438.30196364997</v>
+        <v>5326.42137256732</v>
       </c>
       <c r="M29" s="31" t="n">
         <f aca="false">M28+M27</f>
-        <v>5464.67619956742</v>
+        <v>5350.99282359528</v>
       </c>
     </row>
     <row r="30" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1370,47 +1410,47 @@
       </c>
       <c r="C31" s="32" t="n">
         <f aca="false">C29*$B$6</f>
-        <v>5074.155</v>
+        <v>5040</v>
       </c>
       <c r="D31" s="32" t="n">
         <f aca="false">D29*$B$6</f>
-        <v>5135.9081</v>
+        <v>5078.3</v>
       </c>
       <c r="E31" s="32" t="n">
         <f aca="false">E29*$B$6</f>
-        <v>5188.7484645</v>
+        <v>5114.886</v>
       </c>
       <c r="F31" s="32" t="n">
         <f aca="false">F29*$B$6</f>
-        <v>5235.04400684</v>
+        <v>5149.77737</v>
       </c>
       <c r="G31" s="32" t="n">
         <f aca="false">G29*$B$6</f>
-        <v>5276.40989342655</v>
+        <v>5183.0144004</v>
       </c>
       <c r="H31" s="32" t="n">
         <f aca="false">H29*$B$6</f>
-        <v>5313.95551699735</v>
+        <v>5214.650032643</v>
       </c>
       <c r="I31" s="32" t="n">
         <f aca="false">I29*$B$6</f>
-        <v>5348.45004036971</v>
+        <v>5244.74438702706</v>
       </c>
       <c r="J31" s="32" t="n">
         <f aca="false">J29*$B$6</f>
-        <v>5380.43337883012</v>
+        <v>5273.36116120657</v>
       </c>
       <c r="K31" s="32" t="n">
         <f aca="false">K29*$B$6</f>
-        <v>5410.29062300947</v>
+        <v>5300.56527881191</v>
       </c>
       <c r="L31" s="32" t="n">
         <f aca="false">L29*$B$6</f>
-        <v>5438.30196364997</v>
+        <v>5326.42137256732</v>
       </c>
       <c r="M31" s="33" t="n">
         <f aca="false">M29*$B$6</f>
-        <v>5464.67619956742</v>
+        <v>5350.99282359528</v>
       </c>
     </row>
     <row r="32" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1419,51 +1459,51 @@
       </c>
       <c r="B32" s="21" t="n">
         <f aca="false">B31-B33</f>
-        <v>1851.5</v>
+        <v>2000</v>
       </c>
       <c r="C32" s="21" t="n">
         <f aca="false">C31-C33</f>
-        <v>1873.18</v>
+        <v>1990</v>
       </c>
       <c r="D32" s="21" t="n">
         <f aca="false">D31-D33</f>
-        <v>1885.08185</v>
+        <v>1980.8</v>
       </c>
       <c r="E32" s="21" t="n">
         <f aca="false">E31-E33</f>
-        <v>1890.563527</v>
+        <v>1972.261</v>
       </c>
       <c r="F32" s="21" t="n">
         <f aca="false">F31-F33</f>
-        <v>1891.868316215</v>
+        <v>1964.28362</v>
       </c>
       <c r="G32" s="21" t="n">
         <f aca="false">G31-G33</f>
-        <v>1890.4929873328</v>
+        <v>1956.7953379</v>
       </c>
       <c r="H32" s="21" t="n">
         <f aca="false">H31-H33</f>
-        <v>1887.43445620829</v>
+        <v>1949.741923268</v>
       </c>
       <c r="I32" s="21" t="n">
         <f aca="false">I31-I33</f>
-        <v>1883.3550326201</v>
+        <v>1943.08168312081</v>
       </c>
       <c r="J32" s="21" t="n">
         <f aca="false">J31-J33</f>
-        <v>1878.69312146799</v>
+        <v>1936.78159249563</v>
       </c>
       <c r="K32" s="21" t="n">
         <f aca="false">K31-K33</f>
-        <v>1873.73737851545</v>
+        <v>1930.81468853652</v>
       </c>
       <c r="L32" s="21" t="n">
         <f aca="false">L31-L33</f>
-        <v>1868.67638138065</v>
+        <v>1925.1583118057</v>
       </c>
       <c r="M32" s="28" t="n">
         <f aca="false">M31-M33</f>
-        <v>1863.63189641157</v>
+        <v>1919.79291587174</v>
       </c>
     </row>
     <row r="33" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,51 +1512,51 @@
       </c>
       <c r="B33" s="29" t="n">
         <f aca="false">IF($B$19*B25&lt;=B31,$B$19*B25,B31)</f>
-        <v>3148.5</v>
+        <v>3000</v>
       </c>
       <c r="C33" s="29" t="n">
         <f aca="false">IF($B$19*C25&lt;=C31,$B$19*C25,C31)</f>
-        <v>3200.975</v>
+        <v>3050</v>
       </c>
       <c r="D33" s="29" t="n">
         <f aca="false">IF($B$19*D25&lt;=D31,$B$19*D25,D31)</f>
-        <v>3250.82625</v>
+        <v>3097.5</v>
       </c>
       <c r="E33" s="29" t="n">
         <f aca="false">IF($B$19*E25&lt;=E31,$B$19*E25,E31)</f>
-        <v>3298.1849375</v>
+        <v>3142.625</v>
       </c>
       <c r="F33" s="29" t="n">
         <f aca="false">IF($B$19*F25&lt;=F31,$B$19*F25,F31)</f>
-        <v>3343.175690625</v>
+        <v>3185.49375</v>
       </c>
       <c r="G33" s="29" t="n">
         <f aca="false">IF($B$19*G25&lt;=G31,$B$19*G25,G31)</f>
-        <v>3385.91690609375</v>
+        <v>3226.2190625</v>
       </c>
       <c r="H33" s="29" t="n">
         <f aca="false">IF($B$19*H25&lt;=H31,$B$19*H25,H31)</f>
-        <v>3426.52106078906</v>
+        <v>3264.908109375</v>
       </c>
       <c r="I33" s="29" t="n">
         <f aca="false">IF($B$19*I25&lt;=I31,$B$19*I25,I31)</f>
-        <v>3465.09500774961</v>
+        <v>3301.66270390625</v>
       </c>
       <c r="J33" s="29" t="n">
         <f aca="false">IF($B$19*J25&lt;=J31,$B$19*J25,J31)</f>
-        <v>3501.74025736213</v>
+        <v>3336.57956871094</v>
       </c>
       <c r="K33" s="29" t="n">
         <f aca="false">IF($B$19*K25&lt;=K31,$B$19*K25,K31)</f>
-        <v>3536.55324449402</v>
+        <v>3369.75059027539</v>
       </c>
       <c r="L33" s="29" t="n">
         <f aca="false">IF($B$19*L25&lt;=L31,$B$19*L25,L31)</f>
-        <v>3569.62558226932</v>
+        <v>3401.26306076162</v>
       </c>
       <c r="M33" s="31" t="n">
         <f aca="false">IF($B$19*M25&lt;=M31,$B$19*M25,M31)</f>
-        <v>3601.04430315585</v>
+        <v>3431.19990772354</v>
       </c>
     </row>
     <row r="34" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1643,51 +1683,51 @@
       </c>
       <c r="B38" s="21" t="n">
         <f aca="false">B33*$B$9</f>
-        <v>314.85</v>
+        <v>300</v>
       </c>
       <c r="C38" s="21" t="n">
         <f aca="false">C33*$B$9</f>
-        <v>320.0975</v>
+        <v>305</v>
       </c>
       <c r="D38" s="21" t="n">
         <f aca="false">D33*$B$9</f>
-        <v>325.082625</v>
+        <v>309.75</v>
       </c>
       <c r="E38" s="21" t="n">
         <f aca="false">E33*$B$9</f>
-        <v>329.81849375</v>
+        <v>314.2625</v>
       </c>
       <c r="F38" s="21" t="n">
         <f aca="false">F33*$B$9</f>
-        <v>334.3175690625</v>
+        <v>318.549375</v>
       </c>
       <c r="G38" s="21" t="n">
         <f aca="false">G33*$B$9</f>
-        <v>338.591690609375</v>
+        <v>322.62190625</v>
       </c>
       <c r="H38" s="21" t="n">
         <f aca="false">H33*$B$9</f>
-        <v>342.652106078906</v>
+        <v>326.4908109375</v>
       </c>
       <c r="I38" s="21" t="n">
         <f aca="false">I33*$B$9</f>
-        <v>346.509500774961</v>
+        <v>330.166270390625</v>
       </c>
       <c r="J38" s="21" t="n">
         <f aca="false">J33*$B$9</f>
-        <v>350.174025736213</v>
+        <v>333.657956871094</v>
       </c>
       <c r="K38" s="21" t="n">
         <f aca="false">K33*$B$9</f>
-        <v>353.655324449402</v>
+        <v>336.975059027539</v>
       </c>
       <c r="L38" s="21" t="n">
         <f aca="false">L33*$B$9</f>
-        <v>356.962558226932</v>
+        <v>340.126306076162</v>
       </c>
       <c r="M38" s="28" t="n">
         <f aca="false">M33*$B$9</f>
-        <v>360.104430315585</v>
+        <v>343.119990772354</v>
       </c>
     </row>
     <row r="39" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1696,51 +1736,51 @@
       </c>
       <c r="B39" s="21" t="n">
         <f aca="false">B32*$B$8</f>
-        <v>610.995</v>
+        <v>660</v>
       </c>
       <c r="C39" s="21" t="n">
         <f aca="false">C32*$B$8</f>
-        <v>618.1494</v>
+        <v>656.7</v>
       </c>
       <c r="D39" s="21" t="n">
         <f aca="false">D32*$B$8</f>
-        <v>622.0770105</v>
+        <v>653.664</v>
       </c>
       <c r="E39" s="21" t="n">
         <f aca="false">E32*$B$8</f>
-        <v>623.88596391</v>
+        <v>650.84613</v>
       </c>
       <c r="F39" s="21" t="n">
         <f aca="false">F32*$B$8</f>
-        <v>624.31654435095</v>
+        <v>648.2135946</v>
       </c>
       <c r="G39" s="21" t="n">
         <f aca="false">G32*$B$8</f>
-        <v>623.862685819824</v>
+        <v>645.742461507</v>
       </c>
       <c r="H39" s="21" t="n">
         <f aca="false">H32*$B$8</f>
-        <v>622.853370548735</v>
+        <v>643.41483467844</v>
       </c>
       <c r="I39" s="21" t="n">
         <f aca="false">I32*$B$8</f>
-        <v>621.507160764633</v>
+        <v>641.216955429867</v>
       </c>
       <c r="J39" s="21" t="n">
         <f aca="false">J32*$B$8</f>
-        <v>619.968730084436</v>
+        <v>639.137925523558</v>
       </c>
       <c r="K39" s="21" t="n">
         <f aca="false">K32*$B$8</f>
-        <v>618.333334910097</v>
+        <v>637.168847217053</v>
       </c>
       <c r="L39" s="21" t="n">
         <f aca="false">L32*$B$8</f>
-        <v>616.663205855614</v>
+        <v>635.302242895881</v>
       </c>
       <c r="M39" s="28" t="n">
         <f aca="false">M32*$B$8</f>
-        <v>614.998525815817</v>
+        <v>633.531662237674</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,51 +1789,51 @@
       </c>
       <c r="B40" s="21" t="n">
         <f aca="false">B29-B38-B39</f>
-        <v>4074.155</v>
+        <v>4040</v>
       </c>
       <c r="C40" s="21" t="n">
         <f aca="false">C29-C38-C39</f>
-        <v>4135.9081</v>
+        <v>4078.3</v>
       </c>
       <c r="D40" s="21" t="n">
         <f aca="false">D29-D38-D39</f>
-        <v>4188.7484645</v>
+        <v>4114.886</v>
       </c>
       <c r="E40" s="21" t="n">
         <f aca="false">E29-E38-E39</f>
-        <v>4235.04400684</v>
+        <v>4149.77737</v>
       </c>
       <c r="F40" s="21" t="n">
         <f aca="false">F29-F38-F39</f>
-        <v>4276.40989342655</v>
+        <v>4183.0144004</v>
       </c>
       <c r="G40" s="21" t="n">
         <f aca="false">G29-G38-G39</f>
-        <v>4313.95551699735</v>
+        <v>4214.650032643</v>
       </c>
       <c r="H40" s="21" t="n">
         <f aca="false">H29-H38-H39</f>
-        <v>4348.45004036971</v>
+        <v>4244.74438702706</v>
       </c>
       <c r="I40" s="21" t="n">
         <f aca="false">I29-I38-I39</f>
-        <v>4380.43337883012</v>
+        <v>4273.36116120657</v>
       </c>
       <c r="J40" s="21" t="n">
         <f aca="false">J29-J38-J39</f>
-        <v>4410.29062300947</v>
+        <v>4300.56527881191</v>
       </c>
       <c r="K40" s="21" t="n">
         <f aca="false">K29-K38-K39</f>
-        <v>4438.30196364997</v>
+        <v>4326.42137256732</v>
       </c>
       <c r="L40" s="21" t="n">
         <f aca="false">L29-L38-L39</f>
-        <v>4464.67619956742</v>
+        <v>4350.99282359528</v>
       </c>
       <c r="M40" s="28" t="n">
         <f aca="false">M29-M38-M39</f>
-        <v>4489.57324343602</v>
+        <v>4374.34117058525</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1806,51 +1846,51 @@
       </c>
       <c r="B42" s="35" t="n">
         <f aca="false">B33</f>
-        <v>3148.5</v>
+        <v>3000</v>
       </c>
       <c r="C42" s="35" t="n">
         <f aca="false">C33</f>
-        <v>3200.975</v>
+        <v>3050</v>
       </c>
       <c r="D42" s="35" t="n">
         <f aca="false">D33</f>
-        <v>3250.82625</v>
+        <v>3097.5</v>
       </c>
       <c r="E42" s="35" t="n">
         <f aca="false">E33</f>
-        <v>3298.1849375</v>
+        <v>3142.625</v>
       </c>
       <c r="F42" s="35" t="n">
         <f aca="false">F33</f>
-        <v>3343.175690625</v>
+        <v>3185.49375</v>
       </c>
       <c r="G42" s="35" t="n">
         <f aca="false">G33</f>
-        <v>3385.91690609375</v>
+        <v>3226.2190625</v>
       </c>
       <c r="H42" s="35" t="n">
         <f aca="false">H33</f>
-        <v>3426.52106078906</v>
+        <v>3264.908109375</v>
       </c>
       <c r="I42" s="35" t="n">
         <f aca="false">I33</f>
-        <v>3465.09500774961</v>
+        <v>3301.66270390625</v>
       </c>
       <c r="J42" s="35" t="n">
         <f aca="false">J33</f>
-        <v>3501.74025736213</v>
+        <v>3336.57956871094</v>
       </c>
       <c r="K42" s="35" t="n">
         <f aca="false">K33</f>
-        <v>3536.55324449402</v>
+        <v>3369.75059027539</v>
       </c>
       <c r="L42" s="35" t="n">
         <f aca="false">L33</f>
-        <v>3569.62558226932</v>
+        <v>3401.26306076162</v>
       </c>
       <c r="M42" s="36" t="n">
         <f aca="false">M33</f>
-        <v>3601.04430315585</v>
+        <v>3431.19990772354</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,51 +1899,51 @@
       </c>
       <c r="B43" s="38" t="n">
         <f aca="false">B42*$B$18</f>
-        <v>18040.905</v>
+        <v>18000</v>
       </c>
       <c r="C43" s="38" t="n">
         <f aca="false">C42*$B$18</f>
-        <v>18341.58675</v>
+        <v>18300</v>
       </c>
       <c r="D43" s="38" t="n">
         <f aca="false">D42*$B$18</f>
-        <v>18627.2344125</v>
+        <v>18585</v>
       </c>
       <c r="E43" s="38" t="n">
         <f aca="false">E42*$B$18</f>
-        <v>18898.599691875</v>
+        <v>18855.75</v>
       </c>
       <c r="F43" s="38" t="n">
         <f aca="false">F42*$B$18</f>
-        <v>19156.3967072813</v>
+        <v>19112.9625</v>
       </c>
       <c r="G43" s="38" t="n">
         <f aca="false">G42*$B$18</f>
-        <v>19401.3038719172</v>
+        <v>19357.314375</v>
       </c>
       <c r="H43" s="38" t="n">
         <f aca="false">H42*$B$18</f>
-        <v>19633.9656783213</v>
+        <v>19589.44865625</v>
       </c>
       <c r="I43" s="38" t="n">
         <f aca="false">I42*$B$18</f>
-        <v>19854.9943944053</v>
+        <v>19809.9762234375</v>
       </c>
       <c r="J43" s="38" t="n">
         <f aca="false">J42*$B$18</f>
-        <v>20064.971674685</v>
+        <v>20019.4774122656</v>
       </c>
       <c r="K43" s="38" t="n">
         <f aca="false">K42*$B$18</f>
-        <v>20264.4500909507</v>
+        <v>20218.5035416523</v>
       </c>
       <c r="L43" s="38" t="n">
         <f aca="false">L42*$B$18</f>
-        <v>20453.9545864032</v>
+        <v>20407.5783645697</v>
       </c>
       <c r="M43" s="39" t="n">
         <f aca="false">M42*$B$18</f>
-        <v>20633.9838570831</v>
+        <v>20587.1994463412</v>
       </c>
     </row>
     <row r="44" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2071,51 +2111,51 @@
       </c>
       <c r="B47" s="38" t="n">
         <f aca="false">B43-B46</f>
-        <v>-71959.095</v>
+        <v>-72000</v>
       </c>
       <c r="C47" s="38" t="n">
         <f aca="false">C43-C46</f>
-        <v>2341.58675</v>
+        <v>2300</v>
       </c>
       <c r="D47" s="38" t="n">
         <f aca="false">D43-D46</f>
-        <v>2627.2344125</v>
+        <v>2585</v>
       </c>
       <c r="E47" s="38" t="n">
         <f aca="false">E43-E46</f>
-        <v>2898.599691875</v>
+        <v>2855.75</v>
       </c>
       <c r="F47" s="38" t="n">
         <f aca="false">F43-F46</f>
-        <v>3156.39670728125</v>
+        <v>3112.9625</v>
       </c>
       <c r="G47" s="38" t="n">
         <f aca="false">G43-G46</f>
-        <v>3401.30387191719</v>
+        <v>3357.314375</v>
       </c>
       <c r="H47" s="38" t="n">
         <f aca="false">H43-H46</f>
-        <v>3633.96567832133</v>
+        <v>3589.44865625</v>
       </c>
       <c r="I47" s="38" t="n">
         <f aca="false">I43-I46</f>
-        <v>3854.99439440526</v>
+        <v>3809.9762234375</v>
       </c>
       <c r="J47" s="38" t="n">
         <f aca="false">J43-J46</f>
-        <v>4064.971674685</v>
+        <v>4019.47741226562</v>
       </c>
       <c r="K47" s="38" t="n">
         <f aca="false">K43-K46</f>
-        <v>4264.45009095075</v>
+        <v>4218.50354165234</v>
       </c>
       <c r="L47" s="38" t="n">
         <f aca="false">L43-L46</f>
-        <v>4453.95458640321</v>
+        <v>4407.57836456973</v>
       </c>
       <c r="M47" s="39" t="n">
         <f aca="false">M43-M46</f>
-        <v>4633.98385708305</v>
+        <v>4587.19944634124</v>
       </c>
     </row>
     <row r="48" s="44" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2175,11 +2215,11 @@
       </c>
       <c r="L49" s="46" t="n">
         <f aca="false">L43/K43-1</f>
-        <v>0.00935157354884675</v>
+        <v>0.00935157354884719</v>
       </c>
       <c r="M49" s="47" t="n">
         <f aca="false">M43/L43-1</f>
-        <v>0.00880168526430181</v>
+        <v>0.00880168526430158</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2188,51 +2228,51 @@
       </c>
       <c r="B50" s="44" t="n">
         <f aca="false">B33/B31</f>
-        <v>0.6297</v>
+        <v>0.6</v>
       </c>
       <c r="C50" s="44" t="n">
         <f aca="false">C33/C31</f>
-        <v>0.63083902639947</v>
+        <v>0.60515873015873</v>
       </c>
       <c r="D50" s="44" t="n">
         <f aca="false">D33/D31</f>
-        <v>0.632960361965978</v>
+        <v>0.609948211015497</v>
       </c>
       <c r="E50" s="44" t="n">
         <f aca="false">E33/E31</f>
-        <v>0.635641708220254</v>
+        <v>0.614407632936492</v>
       </c>
       <c r="F50" s="44" t="n">
         <f aca="false">F33/F31</f>
-        <v>0.638614629840146</v>
+        <v>0.618569215934863</v>
       </c>
       <c r="G50" s="44" t="n">
         <f aca="false">G33/G31</f>
-        <v>0.641708467401668</v>
+        <v>0.622459984338653</v>
       </c>
       <c r="H50" s="44" t="n">
         <f aca="false">H33/H31</f>
-        <v>0.644815533330851</v>
+        <v>0.626103015338924</v>
       </c>
       <c r="I50" s="44" t="n">
         <f aca="false">I33/I31</f>
-        <v>0.647869005337121</v>
+        <v>0.629518325444602</v>
       </c>
       <c r="J50" s="44" t="n">
         <f aca="false">J33/J31</f>
-        <v>0.650828662081403</v>
+        <v>0.632723507211388</v>
       </c>
       <c r="K50" s="44" t="n">
         <f aca="false">K33/K31</f>
-        <v>0.65367158456394</v>
+        <v>0.635734193057744</v>
       </c>
       <c r="L50" s="44" t="n">
         <f aca="false">L33/L31</f>
-        <v>0.656386056921623</v>
+        <v>0.638564398655944</v>
       </c>
       <c r="M50" s="49" t="n">
         <f aca="false">M33/M31</f>
-        <v>0.658967552998092</v>
+        <v>0.641226781802737</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2241,51 +2281,51 @@
       </c>
       <c r="B51" s="21" t="n">
         <f aca="false">B42/B25</f>
-        <v>104.95</v>
+        <v>100</v>
       </c>
       <c r="C51" s="21" t="n">
         <f aca="false">C42/C25</f>
-        <v>104.95</v>
+        <v>100</v>
       </c>
       <c r="D51" s="21" t="n">
         <f aca="false">D42/D25</f>
-        <v>104.95</v>
+        <v>100</v>
       </c>
       <c r="E51" s="21" t="n">
         <f aca="false">E42/E25</f>
-        <v>104.95</v>
+        <v>100</v>
       </c>
       <c r="F51" s="21" t="n">
         <f aca="false">F42/F25</f>
-        <v>104.95</v>
+        <v>100</v>
       </c>
       <c r="G51" s="21" t="n">
         <f aca="false">G42/G25</f>
-        <v>104.95</v>
+        <v>100</v>
       </c>
       <c r="H51" s="21" t="n">
         <f aca="false">H42/H25</f>
-        <v>104.95</v>
+        <v>100</v>
       </c>
       <c r="I51" s="21" t="n">
         <f aca="false">I42/I25</f>
-        <v>104.95</v>
+        <v>100</v>
       </c>
       <c r="J51" s="21" t="n">
         <f aca="false">J42/J25</f>
-        <v>104.95</v>
+        <v>100</v>
       </c>
       <c r="K51" s="21" t="n">
         <f aca="false">K42/K25</f>
-        <v>104.95</v>
+        <v>100</v>
       </c>
       <c r="L51" s="21" t="n">
         <f aca="false">L42/L25</f>
-        <v>104.95</v>
+        <v>100</v>
       </c>
       <c r="M51" s="28" t="n">
         <f aca="false">M42/M25</f>
-        <v>104.95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2294,51 +2334,51 @@
       </c>
       <c r="B52" s="51" t="n">
         <f aca="false">$B$17*B51</f>
-        <v>2022.3865</v>
+        <v>1900</v>
       </c>
       <c r="C52" s="51" t="n">
         <f aca="false">$B$17*C51</f>
-        <v>2022.3865</v>
+        <v>1900</v>
       </c>
       <c r="D52" s="51" t="n">
         <f aca="false">$B$17*D51</f>
-        <v>2022.3865</v>
+        <v>1900</v>
       </c>
       <c r="E52" s="51" t="n">
         <f aca="false">$B$17*E51</f>
-        <v>2022.3865</v>
+        <v>1900</v>
       </c>
       <c r="F52" s="51" t="n">
         <f aca="false">$B$17*F51</f>
-        <v>2022.3865</v>
+        <v>1900</v>
       </c>
       <c r="G52" s="51" t="n">
         <f aca="false">$B$17*G51</f>
-        <v>2022.3865</v>
+        <v>1900</v>
       </c>
       <c r="H52" s="51" t="n">
         <f aca="false">$B$17*H51</f>
-        <v>2022.3865</v>
+        <v>1900</v>
       </c>
       <c r="I52" s="51" t="n">
         <f aca="false">$B$17*I51</f>
-        <v>2022.3865</v>
+        <v>1900</v>
       </c>
       <c r="J52" s="51" t="n">
         <f aca="false">$B$17*J51</f>
-        <v>2022.3865</v>
+        <v>1900</v>
       </c>
       <c r="K52" s="51" t="n">
         <f aca="false">$B$17*K51</f>
-        <v>2022.3865</v>
+        <v>1900</v>
       </c>
       <c r="L52" s="51" t="n">
         <f aca="false">$B$17*L51</f>
-        <v>2022.3865</v>
+        <v>1900</v>
       </c>
       <c r="M52" s="52" t="n">
         <f aca="false">$B$17*M51</f>
-        <v>2022.3865</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="55" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2463,11 +2503,11 @@
       </c>
       <c r="O58" s="32" t="n">
         <f aca="false">E3*E3</f>
-        <v>371.3329</v>
+        <v>361</v>
       </c>
       <c r="P58" s="55" t="n">
         <f aca="false">O58*N58</f>
-        <v>-88063.4991372915</v>
+        <v>-85612.9989789814</v>
       </c>
       <c r="ALW58" s="21"/>
       <c r="ALX58" s="21"/>
@@ -2539,11 +2579,11 @@
       </c>
       <c r="O59" s="21" t="n">
         <f aca="false">E3</f>
-        <v>19.27</v>
+        <v>19</v>
       </c>
       <c r="P59" s="55" t="n">
         <f aca="false">O59*N59</f>
-        <v>176151.925433842</v>
+        <v>173683.787402336</v>
       </c>
     </row>
     <row r="60" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2613,7 +2653,7 @@
       </c>
       <c r="P61" s="55" t="n">
         <f aca="false">SUM(P58:P60)</f>
-        <v>7779.07822384733</v>
+        <v>7761.4403506505</v>
       </c>
       <c r="ALW61" s="0"/>
       <c r="ALX61" s="0"/>
@@ -2649,7 +2689,7 @@
       </c>
       <c r="P62" s="8" t="n">
         <f aca="false">P61*B3</f>
-        <v>233372.34671542</v>
+        <v>232843.210519515</v>
       </c>
     </row>
     <row r="63" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,7 +2811,7 @@
       <c r="M67" s="29"/>
       <c r="P67" s="21" t="n">
         <f aca="false">P61/12</f>
-        <v>648.256518653944</v>
+        <v>646.786695887542</v>
       </c>
       <c r="ALW67" s="0"/>
       <c r="ALX67" s="0"/>
@@ -2804,7 +2844,7 @@
       <c r="M68" s="29"/>
       <c r="P68" s="21" t="n">
         <f aca="false">P67*30</f>
-        <v>19447.6955596183</v>
+        <v>19403.6008766263</v>
       </c>
       <c r="ALW68" s="0"/>
       <c r="ALX68" s="0"/>
@@ -2829,5 +2869,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>